--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social funcional bajo</t>
+          <t>Apoyo social funcional bajo (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social funcional bajo</t>
+          <t>Apoyo social funcional bajo (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78,65%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,89; 78,48</t>
+          <t>62,72; 79,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,7; 61,63</t>
+          <t>38,03; 61,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>70,46; 85,49</t>
+          <t>69,92; 87,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,33; 65,43</t>
+          <t>44,86; 64,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>68,95; 79,87</t>
+          <t>70,2; 81,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,97; 59,31</t>
+          <t>44,29; 59,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77,71%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,33; 83,74</t>
+          <t>63,21; 80,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,14; 73,48</t>
+          <t>56,23; 73,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,07; 88,49</t>
+          <t>78,61; 89,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,38; 60,08</t>
+          <t>23,04; 59,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,36; 84,87</t>
+          <t>73,31; 83,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,14; 62,36</t>
+          <t>34,4; 63,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,67%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,59; 87,24</t>
+          <t>80,29; 89,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,8; 69,54</t>
+          <t>57,61; 69,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82,8; 90,82</t>
+          <t>82,43; 90,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,68; 68,73</t>
+          <t>59,49; 68,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,02; 88,36</t>
+          <t>83,14; 88,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,22; 67,68</t>
+          <t>60,09; 68,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,97; 87,7</t>
+          <t>82,19; 89,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,7; 66,19</t>
+          <t>14,66; 65,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,99; 92,9</t>
+          <t>84,6; 92,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,22; 70,76</t>
+          <t>63,23; 70,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,58; 89,46</t>
+          <t>84,92; 90,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,58; 66,76</t>
+          <t>25,53; 66,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>86,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,79; 88,57</t>
+          <t>81,43; 89,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,32; 75,01</t>
+          <t>65,07; 74,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,87; 91,28</t>
+          <t>85,52; 91,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,52; 77,53</t>
+          <t>69,81; 77,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,0; 89,03</t>
+          <t>85,07; 89,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,86; 74,83</t>
+          <t>69,07; 75,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>73,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>79,57%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>76,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,31; 77,36</t>
+          <t>66,94; 77,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>64,76; 74,9</t>
+          <t>64,66; 74,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>75,52; 83,61</t>
+          <t>75,46; 84,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>62,66; 71,02</t>
+          <t>62,43; 70,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,07; 79,8</t>
+          <t>73,39; 80,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,81; 71,45</t>
+          <t>65,01; 71,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>81,0%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>80,41%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>80,64%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,6; 85,12</t>
+          <t>77,2; 86,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,57; 81,13</t>
+          <t>69,79; 81,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76,11; 84,26</t>
+          <t>76,69; 84,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>70,05; 77,94</t>
+          <t>69,97; 77,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,12; 83,17</t>
+          <t>78,15; 84,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>71,97; 78,56</t>
+          <t>71,41; 78,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>82,61%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,01; 82,06</t>
+          <t>78,99; 83,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,13; 66,07</t>
+          <t>33,84; 66,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>82,81; 86,11</t>
+          <t>83,46; 86,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,47; 66,85</t>
+          <t>55,72; 66,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>81,4; 83,81</t>
+          <t>81,88; 84,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,47; 65,66</t>
+          <t>48,98; 65,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18117</t>
+          <t>50010</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18558</t>
+          <t>57841</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36674</t>
+          <t>107851</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16039; 20014</t>
+          <t>43445; 55148</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89776; 142982</t>
+          <t>88228; 143596</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16624; 20171</t>
+          <t>49938; 62619</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82401; 118950</t>
+          <t>81547; 118076</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33850; 39211</t>
+          <t>98763; 115207</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>177797; 245396</t>
+          <t>183277; 245593</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22434</t>
+          <t>66301</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26748</t>
+          <t>77304</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49183</t>
+          <t>143606</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20303; 24175</t>
+          <t>57636; 73235</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>130260; 167517</t>
+          <t>128192; 166842</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24505; 28509</t>
+          <t>71654; 82025</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66631; 187212</t>
+          <t>71781; 186151</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46034; 51839</t>
+          <t>133673; 152927</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>178828; 336499</t>
+          <t>185606; 339966</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38959</t>
+          <t>109845</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44987</t>
+          <t>109971</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83946</t>
+          <t>219816</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36038; 41049</t>
+          <t>103284; 114926</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175251; 210860</t>
+          <t>174665; 209692</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42489; 46608</t>
+          <t>103936; 114246</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>191504; 220547</t>
+          <t>190876; 220024</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>80679; 86919</t>
+          <t>211780; 226627</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>375812; 422375</t>
+          <t>374993; 424813</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>60672</t>
+          <t>130679</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>66345</t>
+          <t>133987</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>127017</t>
+          <t>264666</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57576; 63144</t>
+          <t>124461; 135833</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85176; 411668</t>
+          <t>91175; 408589</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64007; 68353</t>
+          <t>127617; 138821</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>252357; 282455</t>
+          <t>252412; 282485</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>123131; 130230</t>
+          <t>256682; 272186</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>271425; 681712</t>
+          <t>260718; 683603</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>57540</t>
+          <t>111801</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72064</t>
+          <t>125295</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>129604</t>
+          <t>237095</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>54772; 60048</t>
+          <t>105745; 116623</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>217624; 249900</t>
+          <t>216772; 249660</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>69153; 74370</t>
+          <t>120244; 128965</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>217832; 242952</t>
+          <t>218766; 241294</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>125399; 132906</t>
+          <t>230078; 243233</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>445195; 483807</t>
+          <t>446553; 485250</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>44123</t>
+          <t>70350</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>54664</t>
+          <t>89674</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98786</t>
+          <t>160025</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>40782; 46867</t>
+          <t>64376; 74851</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>133523; 154426</t>
+          <t>133311; 153382</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>51879; 57439</t>
+          <t>84330; 94493</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>151312; 171501</t>
+          <t>150774; 171256</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>94461; 103169</t>
+          <t>152594; 166888</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>290130; 319870</t>
+          <t>291037; 320164</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>40916</t>
+          <t>65503</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>64628</t>
+          <t>103695</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>105544</t>
+          <t>169199</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>38189; 42996</t>
+          <t>61606; 69175</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>101336; 118161</t>
+          <t>101655; 119240</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>61166; 67723</t>
+          <t>98115; 108571</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>159368; 177334</t>
+          <t>159187; 177377</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>100935; 108853</t>
+          <t>162343; 175568</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>268570; 293164</t>
+          <t>266485; 291470</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>282761</t>
+          <t>604490</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>347993</t>
+          <t>697769</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>630755</t>
+          <t>1302259</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>274827; 289116</t>
+          <t>589553; 619963</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>809971; 1367685</t>
+          <t>700534; 1367253</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>340539; 354138</t>
+          <t>684195; 712028</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1087093; 1334195</t>
+          <t>1112034; 1333514</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>621525; 639960</t>
+          <t>1282323; 1322353</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1970855; 2669737</t>
+          <t>1991658; 2665143</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>50,99%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62,16%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>72,2%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>49,99%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>62,16%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>57,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>62,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>80,98%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>54,57%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>62,19%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>54,05%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62,18%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>76,66%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>52,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>62,18%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>40,36; 61,38</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>56,03; 68,27</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>62,72; 79,62</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>38,03; 61,9</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>56,03; 68,27</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>48,1; 66,74</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>55,82; 68,07</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>69,92; 87,67</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>44,86; 64,95</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>55,82; 68,07</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>46,71; 60,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>57,85; 66,57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>70,2; 81,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>44,29; 59,35</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>57,85; 66,57</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>67,53%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66,29%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>72,71%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>64,94%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>66,29%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>59,52%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>65,03%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>84,8%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>44,72%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>65,03%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>63,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>78,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>53,26%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>65,61%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>58,9; 74,94</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60,41; 71,86</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>63,21; 80,32</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>56,23; 73,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>60,41; 71,86</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>53,32; 66,32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>59,31; 70,77</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>78,61; 89,98</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>23,04; 59,74</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>59,31; 70,77</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>57,91; 68,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61,09; 69,15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>73,31; 83,87</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>34,4; 63,01</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>61,09; 69,15</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>66,89%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66,54%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>85,39%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>63,8%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>66,54%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>65,61%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>66,62%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>87,22%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>64,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>66,62%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>66,24%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>66,58%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>86,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>64,05%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>66,58%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>61,47; 72,02</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>61,58; 71,52</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>80,29; 89,34</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>57,61; 69,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>61,58; 71,52</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>61,16; 69,88</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>61,72; 71,5</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>82,43; 90,61</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>59,49; 68,57</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>61,72; 71,5</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>62,77; 69,81</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63,01; 69,78</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>83,14; 88,97</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>60,09; 68,07</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>63,01; 69,78</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>66,56%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>67,53%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>86,3%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>39,23%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>67,53%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>66,92%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>65,56%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>88,82%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>67,08%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>65,56%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>66,74%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66,58%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>87,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>50,12%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>66,58%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>61,34; 71,05</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>62,85; 71,74</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>82,19; 89,7</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>14,66; 65,7</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>62,85; 71,74</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>63,36; 70,49</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>60,79; 69,91</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>84,6; 92,03</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>63,23; 70,77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>60,79; 69,91</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>63,84; 69,68</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>63,74; 69,8</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>84,92; 90,05</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>25,53; 66,95</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>63,74; 69,8</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>71,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67,96%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>86,1%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>70,44%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>67,96%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>74,16%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>65,01%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>89,11%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>73,66%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>65,01%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>72,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66,42%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>87,66%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>72,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>66,42%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>65,87; 75,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63,17; 72,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>81,43; 89,81</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>65,07; 74,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>63,17; 72,98</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>70,63; 77,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>59,81; 69,49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>85,52; 91,72</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>69,81; 77,0</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>59,81; 69,49</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>69,7; 75,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62,76; 69,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>85,07; 89,93</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>69,07; 75,06</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>62,76; 69,93</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>69,85%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65,68%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>73,15%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>69,61%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>65,68%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>67,6%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>62,3%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>80,24%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>66,99%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>62,3%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>68,65%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>63,96%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>76,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>68,2%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>63,96%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>64,67; 74,32</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>61,57; 69,75</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>66,94; 77,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>64,66; 74,39</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>61,57; 69,75</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>63,11; 71,57</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>57,64; 66,64</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>75,46; 84,55</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>62,43; 70,91</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>57,64; 66,64</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>65,49; 71,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>60,97; 66,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>73,39; 80,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>65,01; 71,52</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>60,97; 66,99</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>76,89%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>61,34%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>82,08%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>76,41%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>61,34%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>74,47%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63,94%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>81,05%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>74,04%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>63,94%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>75,41%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>62,86%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>81,45%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>74,96%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>62,86%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>70,38; 82,26</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>56,49; 65,8</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>77,2; 86,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>69,79; 81,87</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>56,49; 65,8</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>70,59; 78,48</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>59,73; 68,48</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>76,69; 84,87</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>69,97; 77,96</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>59,73; 68,48</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>71,9; 78,49</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>59,53; 66,13</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>78,15; 84,51</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>71,41; 78,11</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>59,53; 66,13</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>66,91%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>65,84%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>80,99%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>57,53%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>65,84%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>66,92%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>64,61%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>85,11%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>63,82%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>64,61%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>66,91%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>65,2%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>83,15%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>60,61%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>65,2%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>64,49; 69,39</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>63,8; 67,82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>78,99; 83,07</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>33,84; 66,05</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>63,8; 67,82</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>65,16; 68,81</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>62,78; 66,6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>83,46; 86,85</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>55,72; 66,82</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>62,78; 66,6</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>65,36; 68,26</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>63,88; 66,59</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>81,88; 84,43</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>48,98; 65,55</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>63,88; 66,59</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>114</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>108</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>222</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>314</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>120722</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>99580</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>50010</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>115965</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>99580</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>124616</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>103638</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>57841</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>99196</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>103638</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>245338</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>203218</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>107851</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>215160</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>203218</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>95550; 145329</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89757; 109364</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>43445; 55148</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>88228; 143596</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>89757; 109364</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>104476; 144961</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>93014; 113434</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>49938; 62619</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>81547; 118076</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>93014; 113434</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>212062; 276146</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>189081; 217581</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>98763; 115207</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>183277; 245593</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>189081; 217581</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>127</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>158</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>285</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>381</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>175926</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>118128</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>66301</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>148045</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>118128</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>166528</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>136735</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>77304</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>139337</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>136735</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>342454</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>254863</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>143606</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>287383</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>254863</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>153440; 195216</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>107649; 128063</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>57636; 73235</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>128192; 166842</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>107649; 128063</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>149166; 185531</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>124698; 148786</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>71654; 82025</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>71781; 186151</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>124698; 148786</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>312886; 367521</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>237293; 268616</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>133673; 152927</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>185606; 339966</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>237293; 268616</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>241</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>274</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>515</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>536</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>508</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>239561</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>165225</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>109845</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>193436</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>165225</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>243389</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>162910</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>109971</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>206289</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>162910</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>482951</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>328135</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>219816</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>399725</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>328135</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>220135; 257915</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>152916; 177592</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>103284; 114926</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>174665; 209692</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>152916; 177592</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>226878; 259237</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>150921; 174829</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>103936; 114246</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>190876; 220024</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>150921; 174829</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>457677; 509004</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>310548; 343899</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>211780; 226627</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>374993; 424813</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>310548; 343899</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>349</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>386</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>437</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>735</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>695</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>595</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>277937</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>197722</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>130679</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>243982</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>197722</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>291167</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>178735</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>133987</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>267758</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>178735</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>569105</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>376456</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>264666</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>511740</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>376456</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>256154; 296688</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>184016; 210062</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>124461; 135833</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>91175; 408589</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>184016; 210062</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>275653; 306699</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>165724; 190571</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>127617; 138821</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>252412; 282485</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>165724; 190571</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>544332; 594168</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>360418; 394661</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>256682; 272186</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>260718; 683603</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>360418; 394661</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>336</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>419</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>755</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>689</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>485</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>257236</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>151920</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>111801</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>234657</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>151920</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>261194</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>159089</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>125295</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>230836</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>159089</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>518430</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>311009</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>237095</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>465493</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>311009</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>238523; 273901</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>141223; 163154</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>105745; 116623</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>216772; 249660</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>141223; 163154</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>248769; 273442</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>146364; 170059</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>120244; 128965</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>218766; 241294</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>146364; 170059</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>497863; 538992</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>293886; 327448</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>230078; 243233</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>446553; 485250</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>293886; 327448</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>271</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>341</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>612</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>537</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>615</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>160277</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>113294</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>70350</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>143523</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>113294</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>178972</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>110941</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>89674</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>161770</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>110941</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>339249</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>224235</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>160025</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>305293</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>224235</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>148372; 170524</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>106207; 120316</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>64376; 74851</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>133311; 153382</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>106207; 120316</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>167084; 189464</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>102643; 118669</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>84330; 94493</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>150774; 171256</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>102643; 118669</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>323621; 355275</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>213762; 234849</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>152594; 166888</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>291037; 320164</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>213762; 234849</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>247</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>389</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>636</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>488</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>552</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>122579</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>82552</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>65503</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>111295</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>82552</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>186386</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>120720</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>103695</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>168442</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>120720</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>308966</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>203271</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>169199</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>279736</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>203271</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>112208; 131147</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>76024; 88553</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>61606; 69175</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>101655; 119240</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>76024; 88553</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>176680; 196411</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>112771; 129284</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>98115; 108571</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>159187; 177377</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>112771; 129284</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>294568; 321574</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>192510; 213831</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>162343; 175568</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>266485; 291470</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>192510; 213831</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>1294</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>1685</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1294</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1737</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1713</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>2075</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1713</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>3319</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3450</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>3760</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3319</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3450</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>1354239</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>928420</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>604490</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1190903</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>928420</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>1452251</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>972767</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>697769</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1273628</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>972767</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>2806490</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1901187</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>1302259</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>2464530</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1901187</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>1305172; 1404366</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>899657; 956412</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>589553; 619963</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>700534; 1367253</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>899657; 956412</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>1414058; 1493321</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>945204; 1002797</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>684195; 712028</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>1112034; 1333514</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>945204; 1002797</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>2741143; 2863164</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1862577; 1941622</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>1282323; 1322353</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>1991658; 2665143</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>1862577; 1941622</t>
         </is>
       </c>
     </row>
